--- a/time is money.xlsx
+++ b/time is money.xlsx
@@ -41,6 +41,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>颜色说明：
 1.尽情娱乐时间——高效地玩，无负罪感的玩，用</t>
     </r>
@@ -310,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -333,9 +341,99 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,6 +445,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -355,27 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -386,98 +486,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -531,31 +539,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,120 +653,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -691,26 +717,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -719,11 +727,106 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,16 +846,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -765,6 +877,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,213 +919,198 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1312,8 +1433,8 @@
   <sheetPr/>
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1348,15 +1469,15 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1382,13 +1503,13 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
     </row>
     <row r="3" ht="18" customHeight="1" spans="1:16">
       <c r="A3" s="1"/>
@@ -1412,13 +1533,13 @@
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:16">
       <c r="A4" s="1"/>
@@ -1432,13 +1553,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:16">
       <c r="A5" s="1"/>
@@ -1452,13 +1573,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:16">
       <c r="A6" s="1"/>
@@ -1472,13 +1593,13 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:16">
       <c r="A7" s="1"/>
@@ -1492,13 +1613,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:16">
       <c r="A8" s="1"/>
@@ -1512,13 +1633,13 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:16">
       <c r="A9" s="1"/>
@@ -1532,13 +1653,13 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:16">
       <c r="A10" s="1"/>
@@ -1552,13 +1673,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:16">
       <c r="A11" s="1"/>
@@ -1582,13 +1703,13 @@
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1604,13 +1725,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:16">
       <c r="A13" s="1"/>
@@ -1624,13 +1745,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:16">
       <c r="A14" s="1"/>
@@ -1654,13 +1775,13 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:16">
       <c r="A15" s="1"/>
@@ -1674,13 +1795,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:16">
       <c r="A16" s="1" t="s">
@@ -1696,13 +1817,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:16">
       <c r="A17" s="1"/>
@@ -1716,15 +1837,15 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11"/>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:16">
       <c r="A18" s="1"/>
@@ -1739,12 +1860,12 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:16">
       <c r="A19" s="1"/>
@@ -1759,12 +1880,12 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="12"/>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:16">
       <c r="A20" s="1"/>
@@ -1779,12 +1900,12 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="12"/>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:16">
       <c r="A21" s="1"/>
@@ -1799,12 +1920,12 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="12"/>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:16">
       <c r="A22" s="1"/>
@@ -1829,12 +1950,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="12"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:16">
       <c r="A23" s="1" t="s">
@@ -1851,12 +1972,12 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="12"/>
     </row>
     <row r="24" ht="18" customHeight="1" spans="1:16">
       <c r="A24" s="1"/>
@@ -1871,12 +1992,12 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="12"/>
     </row>
     <row r="25" ht="18" customHeight="1" spans="1:16">
       <c r="A25" s="1"/>
@@ -1891,12 +2012,12 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="12"/>
     </row>
     <row r="26" ht="18" customHeight="1" spans="1:16">
       <c r="A26" s="1"/>
@@ -1911,12 +2032,12 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="12"/>
     </row>
     <row r="27" ht="18" customHeight="1" spans="1:16">
       <c r="A27" s="1"/>
@@ -1931,12 +2052,12 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="12"/>
     </row>
     <row r="28" ht="18" customHeight="1" spans="1:16">
       <c r="A28" s="1"/>
@@ -1951,12 +2072,12 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="12"/>
     </row>
     <row r="29" ht="18" customHeight="1" spans="1:16">
       <c r="A29" s="1"/>
@@ -1971,12 +2092,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="12"/>
     </row>
     <row r="30" ht="18" customHeight="1" spans="1:16">
       <c r="A30" s="1"/>
@@ -1991,12 +2112,12 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="12"/>
     </row>
     <row r="31" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="1"/>
@@ -2011,12 +2132,12 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="12"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="1"/>
@@ -2041,12 +2162,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="12"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="1"/>
@@ -2071,12 +2192,12 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="12"/>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="1"/>
@@ -2101,58 +2222,86 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="12"/>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="12"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="12"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="12"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2162,7 +2311,7 @@
     <mergeCell ref="A23:A34"/>
     <mergeCell ref="A35:I38"/>
     <mergeCell ref="J1:P16"/>
-    <mergeCell ref="J17:P34"/>
+    <mergeCell ref="J17:P38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/time is money.xlsx
+++ b/time is money.xlsx
@@ -318,10 +318,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -341,13 +341,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -361,8 +354,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,23 +402,59 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,13 +468,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,52 +476,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -477,14 +485,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
@@ -551,169 +551,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,8 +825,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,6 +851,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,192 +919,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,13 +1434,15 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
+    <col min="1" max="1" width="5.00833333333333" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="9" width="20.625" customWidth="1"/>
+    <col min="3" max="9" width="24.625" customWidth="1"/>
+    <col min="10" max="16" width="5.00833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
